--- a/Koulu_Kandi/Materiaali.xlsx
+++ b/Koulu_Kandi/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="806">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -2089,16 +2089,10 @@
     <t>1-8</t>
   </si>
   <si>
-    <t>Case study</t>
-  </si>
-  <si>
     <t>Title match</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Good practices</t>
   </si>
   <si>
     <t>Challenges</t>
@@ -2135,9 +2129,6 @@
     <t>Text: Large scale</t>
   </si>
   <si>
-    <t>Present case study</t>
-  </si>
-  <si>
     <t>Organization size</t>
   </si>
   <si>
@@ -2159,9 +2150,6 @@
     <t>2004-2008</t>
   </si>
   <si>
-    <t>Relevance</t>
-  </si>
-  <si>
     <t>The author's own team needed a development method. There was curiosity towards Scrum in the development teams.</t>
   </si>
   <si>
@@ -2220,9 +2208,6 @@
   </si>
   <si>
     <t>Research method</t>
-  </si>
-  <si>
-    <t>References</t>
   </si>
   <si>
     <t>Kotter, Conner</t>
@@ -2251,6 +2236,234 @@
   </si>
   <si>
     <t>The experiment may be considered a failure if evaluated as faithful application of XP. Some teams adapt better to the new methodology than others. The XP methodology does not suit all projects, e.g. maintenance and mainframe projects. Collaboration is a core value in XP, and it relies on buy-in on the lowest organizational levels. Customers were happy with the increased level of involvement. XP is a development process, but not an end-to-end delivery system that the company required. XP creates confusion of the managers' roles. XP (as other agile aproaches) must be lead by focus on collaboration, but not top-down control. The organization showed great courage in commencing the process of change.</t>
+  </si>
+  <si>
+    <t>X?</t>
+  </si>
+  <si>
+    <t>Author bias</t>
+  </si>
+  <si>
+    <t>Measurements as results (quantitative or other)</t>
+  </si>
+  <si>
+    <t>Effect on organization</t>
+  </si>
+  <si>
+    <t>Good references</t>
+  </si>
+  <si>
+    <t>Good citation</t>
+  </si>
+  <si>
+    <t>Relevance
+1-5</t>
+  </si>
+  <si>
+    <t>Listing of practices</t>
+  </si>
+  <si>
+    <t>There were challenges in projects: project failure, deadline miss, quality variations, lack of knowledge transfer between team members. These challenges were acknowledged and a task force was formed to address them. The task force recommended agile approaches as a result of the analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis: 2009. Adoption: 2010- </t>
+  </si>
+  <si>
+    <t>Present experience</t>
+  </si>
+  <si>
+    <t>Empirical case study</t>
+  </si>
+  <si>
+    <t>Industry experience report</t>
+  </si>
+  <si>
+    <t>A consultant with agile expertise was hired. The consultant analyzed the current development method. The consultant recommended the Scrum approach. A subset of employees in different positions attended an introcudtory course on agile development, under the supervision of the consultant.</t>
+  </si>
+  <si>
+    <t>6 different types of data sources were used: interviews, project data, etc.</t>
+  </si>
+  <si>
+    <t>"Traditional waterfall organization", "a customized waterfall method". Government funded projects. The customer (geovernment entity) did not need to pay for requirements changes, so there were lots of them.</t>
+  </si>
+  <si>
+    <t>200 employees, multi-team, multi-project. 6 teams.</t>
+  </si>
+  <si>
+    <t>The organization started to go back to the original method</t>
+  </si>
+  <si>
+    <t>Satisfaction after transformation</t>
+  </si>
+  <si>
+    <t>Prioritized: No agile master/coach due to financial constraints. Teams were overoptimistically thought to have enough skill to implement Scrum after the training. Too much enthusiasm lead to think that agile will solve all problems. The teams did not anticipate problems, and when they emerged the interest in agile methods went down. There was no pilot project, as management was convinced that all problems will be solved instantly by Scrum. The required extra time and resources necessary for implementing an organizational change were not allocated (reducing previous daily tasks). The upper management did not give support for the change.
+The bureucracy of the old model could not easily be changed. There was a struggle between agility (results - not documents) and the governmental requirement for documentation. Management was still demanding documents, and was suspicious when the volume of documentation decreased.</t>
+  </si>
+  <si>
+    <t>Tabaka, Benefield, Livermore, 14-18, Livermore [19]</t>
+  </si>
+  <si>
+    <t>Good practices validated by study (or suggestions?)</t>
+  </si>
+  <si>
+    <t>Nothing validated, but ideas for overcoming for each of the challenges were suggested. Hacving a master (Kimi: champion/coach?), following a change plan, having discipline and piloting were the top suggestions for improvement. (Kimi: up to what extent is planning useful?)</t>
+  </si>
+  <si>
+    <t>See challenges</t>
+  </si>
+  <si>
+    <t>No measurements reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze issues and present </t>
+  </si>
+  <si>
+    <t>Proposition: Apply suitable agile practices depending on the type of work the team is to perform. Set team level goals for the transformation accordingly.</t>
+  </si>
+  <si>
+    <t>Petersen [19], Korhonen [12], Cloke [4], Schatz [23]</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No biasing links seem to exist</t>
+  </si>
+  <si>
+    <t>Existing issues were analyzed, and a set of agile practices were chosen for introduction.</t>
+  </si>
+  <si>
+    <t>The teams were quite dependent, which focuses inter-team requirements when applying agile. An key goal in agile methods is to improve the customer value by allowing requirements changes.</t>
+  </si>
+  <si>
+    <t>Explore agile transformation of support teams, and compare to programming teams</t>
+  </si>
+  <si>
+    <t>Industrial case study. Two surveys with 6 months interval and a feedback session.</t>
+  </si>
+  <si>
+    <t>150 experts. (In focus: 1 development team, 2 support teams)</t>
+  </si>
+  <si>
+    <t>Validity threats</t>
+  </si>
+  <si>
+    <t>The results are based on opinions (of employees)</t>
+  </si>
+  <si>
+    <t>Distributed organization with 150 experts in several projects. Plan driven process resembling waterfall-model. Detailed planning: specification - development - testing. Long cycle times to customer change requests. Everyone hade some agile experience, but the majority had less than 12 months of agile experience.</t>
+  </si>
+  <si>
+    <t>Scrum was introduced into the organization.</t>
+  </si>
+  <si>
+    <t>1 year, after which the researchers assessed that adoption was above intermediate level.</t>
+  </si>
+  <si>
+    <t>All agile practices did not suit the testing and support teams, so they had to customize the selection of practices. Some team members had concerns (prejudices regarding e.g. collective ownership and acdequacy of requirements). Scrum paractices did not suite support work well, as requests came in randomly and needed immediate attention.</t>
+  </si>
+  <si>
+    <t>The type of work of the team makes a difference to what agile practices to apply. Support teams did not apply as much of the agile practices as development teams. During the transition period the support groups did not feel gaining as much experience in agile methods as the developer teams.</t>
+  </si>
+  <si>
+    <t>No description</t>
+  </si>
+  <si>
+    <t>As expected, the agile methods became more familiar during the transformation process.</t>
+  </si>
+  <si>
+    <t>The research was published by the company</t>
+  </si>
+  <si>
+    <t>Present practices evaluated by practice to be good</t>
+  </si>
+  <si>
+    <t>Multi team management issues can be solved by using cross-team management practices. For instance, Communities of Practice is such a practice. Also camps and workshops are suggested for tackling e.g. requirements gathering and integration. The organization should apply practices for leveraging tacit knowledge, similarly as agile practices do on a team level.</t>
+  </si>
+  <si>
+    <t>Unit of 300 people</t>
+  </si>
+  <si>
+    <t>Authors are within the organization</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>2007-(study in 2008)</t>
+  </si>
+  <si>
+    <t>At start a consultant gave a one day training, and helped in one initial planning game. There was also another agile consultant who acted as a agile coach. After evaluating experiences in the agile experiment management decided to continue the implementeation of agile methods. Further change was initiated top down, more pilot projects were started, and experimentation was stimulated. Coaching was applied, and an external consultatnt was used to give guidance. The pilots were run in real operating environments that could not afford to have interruptions. After evaluating feedback by the pilot teams management decided to continue implementing agile methods.</t>
+  </si>
+  <si>
+    <t>Observation and experience within the organization</t>
+  </si>
+  <si>
+    <t>Product management was pleased with agile. The agile methods deal better with unpredictable markets. Transparency and timeliness improved control over product evolution. Better commitment and motivation.</t>
+  </si>
+  <si>
+    <t>"Streamline" (before agile transformation): Requirements canceled reduced 25% to 9%. Time to market reduced by half. Product maintenance costs reduced 20%.
+Agile: No cost reduction detected. (Possible impression of increased costs). Quality can be controlled in agile development and quality remains as high as in average previous projects. Employee motivation went up.</t>
+  </si>
+  <si>
+    <t>Present experience. Present numbers on results.</t>
+  </si>
+  <si>
+    <t>Change resistance: not everyone wanted to take on new responsibilities. Stress pulls people back to the old way of working.</t>
+  </si>
+  <si>
+    <t>Agile worked best for development teams, but teams distant to development did not adopt agile well. There were fears related to agile practices in the beginning, but when knowledge and experience grew the fears proved to be needless. Possible change resistance (towards agile) declined over time as the new way of working was applied. Using of agile processes can be started overnight, but familiarity of time boxing ("streamline") was helpful. Line and project managers are key in making the change stick (learning organization), and management should be coached for this.</t>
+  </si>
+  <si>
+    <t>Teams became cross functional. The organizational chart was left open until it becomes clear how to change it for the better.</t>
+  </si>
+  <si>
+    <t>Agile development was seen as a natural next step for the "Streamline" change.</t>
+  </si>
+  <si>
+    <t>The agile change was preceeded by another change: A goal to reduce time to market was set. The goal was to be reached by streamlining product development. The Streamline concept was successful in improving TTM and lowering costs.
+Time boxing was applied. Waste reduction was applied.</t>
+  </si>
+  <si>
+    <t>Disciplined practice evolution lead to motivation. Change was initiated top-down, but execution was handled bottom-up. The teams had to evolve their own agile implemetation with the help of an agile consultant. Inspiration sessions with speakers from the agile introduction team. Teamwork has a critical role in agile implementation, and particularly the way how feedback is given is important.
+Agile methods can be introduced overnight, but making the change stick requires a long term change process. Good guidance is is important. Use experienced agile coaches, and set up a network of coaches within the organization. Management has to guide and support the change. Management has to be aligned (same language and principles). Implement agile methods in the context of a lean change. . . .</t>
+  </si>
+  <si>
+    <t>Bias. There were extremely few challenges reported.</t>
+  </si>
+  <si>
+    <t>The author was a key person in the transformation, and held responsibility</t>
+  </si>
+  <si>
+    <t>Author bias, neglecting challenges, no research method</t>
+  </si>
+  <si>
+    <t>Several teams. A size of 5-6 teams plus support roles is mentioned.</t>
+  </si>
+  <si>
+    <t>The time to market was around 18 months, and management saw necessary to reduce it. Management realized that the organization was unnecessarily wasting resources.</t>
+  </si>
+  <si>
+    <t>Unnecessary time was spent in meetings. Focus was on individual projects rather than on products delivered to customers. There were communication difficulties across and within projects. Contracts with offshore vendors endorsed bad habits. Agile methods had been tried before by the developers with bad results.</t>
+  </si>
+  <si>
+    <t>Developers were no longer passed around different projects. All project managers were replaced with "delivery leads". Offshore teams were replaced by onshore teams. Organization is project oriented, so that teams are formed around projects. While there still is people working across different teams, such cross allocation is kept to a minimum and made visible.</t>
+  </si>
+  <si>
+    <t>A new CTO was hired to drive the change. The development group visited another company with a working agile organization. The CTO brought in an agile consulting firm. A pilot project was chosen, and an experienced agile team was formed for the project. The pilot project was a great success. After the pilot all other development teams started using agile practices.</t>
+  </si>
+  <si>
+    <t>What is agility?</t>
+  </si>
+  <si>
+    <t>Use a "delivery lead" instead of a project manager. The delivery lead focuses on seeking incentives increasing productivity, coaching on tools and methods, and tracking metrics in order to gain visibility on where the team needs help.</t>
+  </si>
+  <si>
+    <t>Unsuccessful previous attempts caused resistance. Changing the work environment physically involved other entities of the company who were not affected by the agile transformation. The highly successful pilot made unrealistic expectations for the next phase. Teams not performing up to the pilot agile team lead to frustration. Other parts of the organization were non-agile in nature (e.g. marketing)</t>
+  </si>
+  <si>
+    <t>The project management group did not adapt to agile, as it did not bring value in the new way of working.
+There were some fears that proved to be false. E.g. The differences in the agile implementations between different teams were thought to cause trouble when people changed. This was not true, and team culture and tools could easily be picked up by new people.</t>
   </si>
 </sst>
 </file>
@@ -2306,12 +2519,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -2356,7 +2575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2428,6 +2647,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4380,11 +4662,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,97 +4682,130 @@
     <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
     <col min="12" max="12" width="6" style="24" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" style="21" customWidth="1"/>
-    <col min="14" max="15" width="4.28515625" style="22" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="22" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="19" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="19" customWidth="1"/>
-    <col min="22" max="22" width="49.28515625" style="19" customWidth="1"/>
-    <col min="23" max="23" width="47.140625" style="19" customWidth="1"/>
-    <col min="24" max="24" width="77.42578125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="56.42578125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="66.28515625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" style="19" customWidth="1"/>
-    <col min="28" max="28" width="38.28515625" style="19" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" style="19" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="22" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="22"/>
+    <col min="14" max="16" width="4.28515625" style="22" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="17" customWidth="1"/>
+    <col min="21" max="21" width="18" style="30" customWidth="1"/>
+    <col min="22" max="23" width="21.140625" style="30" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="19" customWidth="1"/>
+    <col min="26" max="26" width="49.28515625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
+    <col min="28" max="28" width="77.42578125" style="19" customWidth="1"/>
+    <col min="29" max="29" width="43.28515625" style="19" customWidth="1"/>
+    <col min="30" max="30" width="56.42578125" style="19" customWidth="1"/>
+    <col min="31" max="31" width="66.28515625" style="19" customWidth="1"/>
+    <col min="32" max="32" width="65.85546875" style="19" customWidth="1"/>
+    <col min="33" max="33" width="37" style="19" customWidth="1"/>
+    <col min="34" max="34" width="34.5703125" style="19" customWidth="1"/>
+    <col min="35" max="35" width="44.85546875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="38.28515625" style="19" customWidth="1"/>
+    <col min="37" max="37" width="17.140625" style="19" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="22" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG1" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>291</v>
       </c>
@@ -4510,31 +4825,31 @@
         <v>472</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="29"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-    </row>
-    <row r="4" spans="1:29" ht="135" x14ac:dyDescent="0.25">
+      <c r="R3" s="23"/>
+      <c r="S3" s="29"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+    </row>
+    <row r="4" spans="1:38" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>271</v>
       </c>
@@ -4554,188 +4869,376 @@
         <v>630</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>689</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>689</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="R4" s="29">
+        <v>687</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="S4" s="29">
         <v>3</v>
       </c>
-      <c r="S4" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z4" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="V4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="AE4" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="X4" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="AF4" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="35">
         <v>2011</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="L5" s="24">
+      <c r="G5" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="M5" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="S5" s="34">
+        <v>3</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y5" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>769</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB5" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE5" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="AF5" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI5" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ5" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="AK5" s="40" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="35">
         <v>2004</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="G6" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="M6" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S6" s="34">
+        <v>1</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+    </row>
+    <row r="7" spans="1:38" s="33" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="35">
         <v>2008</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="L7" s="24">
+      <c r="G7" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M7" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S7" s="34">
+        <v>4</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB7" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>788</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>785</v>
+      </c>
+      <c r="AH7" s="40" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI7" s="41" t="s">
+        <v>786</v>
+      </c>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+    </row>
+    <row r="8" spans="1:38" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>291</v>
       </c>
@@ -4755,65 +5258,190 @@
         <v>361</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="M8" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="S8" s="24">
+        <v>5</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="V8" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="W8" s="32"/>
+      <c r="X8" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="42" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="44">
         <v>2011</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="42" t="s">
         <v>604</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="45" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="L9" s="24">
+      <c r="G9" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="L9" s="43">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M9" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="S9" s="43">
+        <v>4</v>
+      </c>
+      <c r="T9" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="W9" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="X9" s="50" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA9" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="AB9" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE9" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="AF9" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>271</v>
       </c>
@@ -4833,26 +5461,26 @@
         <v>597</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L10" s="24">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>291</v>
       </c>
@@ -4872,74 +5500,74 @@
         <v>388</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="O11" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="S11" s="24">
+        <v>3</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y11" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="R11" s="24">
-        <v>3</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="V11" s="19" t="s">
+      <c r="Z11" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA11" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF11" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="W11" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="Z11" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="AA11" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AK11" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>271</v>
       </c>
@@ -4959,26 +5587,26 @@
         <v>537</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L12" s="24">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>271</v>
       </c>
@@ -4998,26 +5626,26 @@
         <v>486</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L13" s="24">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>271</v>
       </c>
@@ -5037,26 +5665,26 @@
         <v>595</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L14" s="24">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>271</v>
       </c>
@@ -5076,26 +5704,26 @@
         <v>584</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L15" s="24">
         <f>LOOKUP(I15,{"?","N","Y"},{1,0,2}) + LOOKUP(J15,{"?","N","Y"},{1,0,2}) + LOOKUP(K15,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>271</v>
       </c>
@@ -5115,77 +5743,83 @@
         <v>619</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="R16" s="24">
+        <v>687</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="S16" s="24">
         <v>5</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="V16" s="19" t="s">
+      <c r="T16" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="W16" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="AK16" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="AC16" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>271</v>
       </c>
@@ -5205,26 +5839,26 @@
         <v>364</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L17" s="24">
         <f>LOOKUP(I17,{"?","N","Y"},{1,0,2}) + LOOKUP(J17,{"?","N","Y"},{1,0,2}) + LOOKUP(K17,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>271</v>
       </c>
@@ -5244,26 +5878,26 @@
         <v>547</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L18" s="24">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>271</v>
       </c>
@@ -5283,27 +5917,30 @@
         <v>276</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L19" s="24">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="20"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>271</v>
       </c>
@@ -5323,27 +5960,30 @@
         <v>551</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L20" s="24">
         <f>LOOKUP(I20,{"?","N","Y"},{1,0,2}) + LOOKUP(J20,{"?","N","Y"},{1,0,2}) + LOOKUP(K20,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="S20" s="20"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="20"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>271</v>
       </c>
@@ -5363,26 +6003,26 @@
         <v>483</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>271</v>
       </c>
@@ -5402,26 +6042,26 @@
         <v>554</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L22" s="24">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>271</v>
       </c>
@@ -5441,26 +6081,26 @@
         <v>342</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L23" s="24">
         <f>LOOKUP(I23,{"?","N","Y"},{1,0,2}) + LOOKUP(J23,{"?","N","Y"},{1,0,2}) + LOOKUP(K23,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>291</v>
       </c>
@@ -5480,26 +6120,26 @@
         <v>306</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>271</v>
       </c>
@@ -5519,26 +6159,26 @@
         <v>530</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L25" s="24">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>291</v>
       </c>
@@ -5558,26 +6198,26 @@
         <v>319</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>271</v>
       </c>
@@ -5597,26 +6237,26 @@
         <v>625</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L27" s="24">
         <f>LOOKUP(I27,{"?","N","Y"},{1,0,2}) + LOOKUP(J27,{"?","N","Y"},{1,0,2}) + LOOKUP(K27,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>271</v>
       </c>
@@ -5636,26 +6276,26 @@
         <v>641</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L28" s="24">
         <f>LOOKUP(I28,{"?","N","Y"},{1,0,2}) + LOOKUP(J28,{"?","N","Y"},{1,0,2}) + LOOKUP(K28,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>271</v>
       </c>
@@ -5675,26 +6315,26 @@
         <v>435</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L29" s="24">
         <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>271</v>
       </c>
@@ -5714,26 +6354,26 @@
         <v>674</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>271</v>
       </c>
@@ -5753,26 +6393,26 @@
         <v>644</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>271</v>
       </c>
@@ -5792,26 +6432,26 @@
         <v>327</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>277</v>
       </c>
@@ -5831,26 +6471,26 @@
         <v>371</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>291</v>
       </c>
@@ -5870,26 +6510,26 @@
         <v>464</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>271</v>
       </c>
@@ -5909,26 +6549,26 @@
         <v>617</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>271</v>
       </c>
@@ -5948,26 +6588,26 @@
         <v>678</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>271</v>
       </c>
@@ -5987,26 +6627,26 @@
         <v>504</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H37" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K37" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>271</v>
       </c>
@@ -6026,26 +6666,26 @@
         <v>508</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I38" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J38" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K38" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>271</v>
       </c>
@@ -6065,26 +6705,26 @@
         <v>374</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I39" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>291</v>
       </c>
@@ -6104,26 +6744,26 @@
         <v>529</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I40" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K40" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>271</v>
       </c>
@@ -6143,26 +6783,26 @@
         <v>665</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I41" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K41" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>271</v>
       </c>
@@ -6182,26 +6822,26 @@
         <v>614</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H42" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>271</v>
       </c>
@@ -6221,26 +6861,26 @@
         <v>563</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I43" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>291</v>
       </c>
@@ -6260,26 +6900,26 @@
         <v>437</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I44" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J44" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K44" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>271</v>
       </c>
@@ -6299,26 +6939,26 @@
         <v>607</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I45" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J45" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K45" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>271</v>
       </c>
@@ -6338,26 +6978,26 @@
         <v>601</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H46" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I46" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K46" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>271</v>
       </c>
@@ -6377,26 +7017,26 @@
         <v>670</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I47" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K47" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>271</v>
       </c>
@@ -6416,27 +7056,30 @@
         <v>565</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I48" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K48" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
-      <c r="S48" s="20"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="20"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>271</v>
       </c>
@@ -6456,26 +7099,26 @@
         <v>589</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I49" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J49" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K49" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>271</v>
       </c>
@@ -6495,26 +7138,26 @@
         <v>623</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I50" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K50" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>271</v>
       </c>
@@ -6534,26 +7177,26 @@
         <v>649</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I51" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K51" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>271</v>
       </c>
@@ -6573,26 +7216,26 @@
         <v>569</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H52" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K52" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>271</v>
       </c>
@@ -6612,26 +7255,26 @@
         <v>313</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H53" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K53" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>291</v>
       </c>
@@ -6651,26 +7294,26 @@
         <v>432</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J54" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I54" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K54" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>271</v>
       </c>
@@ -6690,26 +7333,26 @@
         <v>408</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H55" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K55" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>271</v>
       </c>
@@ -6729,26 +7372,26 @@
         <v>637</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I56" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K56" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>271</v>
       </c>
@@ -6768,26 +7411,26 @@
         <v>570</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H57" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J57" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I57" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K57" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>271</v>
       </c>
@@ -6807,26 +7450,26 @@
         <v>649</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I58" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K58" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>271</v>
       </c>
@@ -6846,27 +7489,30 @@
         <v>302</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I59" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J59" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J59" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K59" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
-      <c r="S59" s="20"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="20"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>277</v>
       </c>
@@ -6886,26 +7532,26 @@
         <v>397</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>271</v>
       </c>
@@ -6925,26 +7571,26 @@
         <v>577</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I61" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J61" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K61" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>291</v>
       </c>
@@ -6964,26 +7610,26 @@
         <v>480</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H62" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J62" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I62" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K62" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>271</v>
       </c>
@@ -7003,26 +7649,26 @@
         <v>648</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I63" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K63" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>271</v>
       </c>
@@ -7042,26 +7688,26 @@
         <v>444</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H64" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J64" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I64" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K64" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>271</v>
       </c>
@@ -7081,26 +7727,26 @@
         <v>525</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H65" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="K65" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>271</v>
       </c>
@@ -7120,26 +7766,26 @@
         <v>575</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I66" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J66" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J66" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K66" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>271</v>
       </c>
@@ -7159,26 +7805,26 @@
         <v>380</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I67" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J67" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J67" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K67" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>271</v>
       </c>
@@ -7198,26 +7844,26 @@
         <v>611</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I68" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J68" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J68" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K68" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>271</v>
       </c>
@@ -7237,26 +7883,26 @@
         <v>385</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I69" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J69" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J69" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K69" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>271</v>
       </c>
@@ -7276,26 +7922,26 @@
         <v>520</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H70" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J70" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I70" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K70" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>271</v>
       </c>
@@ -7315,26 +7961,26 @@
         <v>615</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>271</v>
       </c>
@@ -7354,26 +8000,26 @@
         <v>400</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>291</v>
       </c>
@@ -7393,26 +8039,26 @@
         <v>412</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>291</v>
       </c>
@@ -7432,26 +8078,26 @@
         <v>663</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>277</v>
       </c>
@@ -7471,27 +8117,30 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
-      <c r="S75" s="20"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="20"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>271</v>
       </c>
@@ -7511,26 +8160,26 @@
         <v>545</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>291</v>
       </c>
@@ -7550,26 +8199,26 @@
         <v>451</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>291</v>
       </c>
@@ -7589,26 +8238,26 @@
         <v>295</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>271</v>
       </c>
@@ -7628,26 +8277,26 @@
         <v>633</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>271</v>
       </c>
@@ -7667,19 +8316,19 @@
         <v>594</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -7706,19 +8355,19 @@
         <v>652</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -7745,19 +8394,19 @@
         <v>324</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -7784,19 +8433,19 @@
         <v>658</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -7823,19 +8472,19 @@
         <v>667</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -7862,19 +8511,19 @@
         <v>659</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I85" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J85" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J85" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K85" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -7901,19 +8550,19 @@
         <v>681</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -7940,19 +8589,19 @@
         <v>556</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -7979,19 +8628,19 @@
         <v>405</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -8018,19 +8667,19 @@
         <v>605</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -8057,19 +8706,19 @@
         <v>624</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -8096,19 +8745,19 @@
         <v>299</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -8135,19 +8784,19 @@
         <v>508</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H92" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J92" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="K92" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J92" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="K92" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -8174,19 +8823,19 @@
         <v>541</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -8213,19 +8862,19 @@
         <v>676</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -8252,19 +8901,19 @@
         <v>591</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H95" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J95" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="K95" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="K95" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -8291,19 +8940,19 @@
         <v>652</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -8330,19 +8979,19 @@
         <v>477</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -8369,19 +9018,19 @@
         <v>609</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I98" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J98" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J98" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K98" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -8408,19 +9057,19 @@
         <v>559</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -8447,19 +9096,19 @@
         <v>593</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H100" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J100" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="K100" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J100" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="K100" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -8486,19 +9135,19 @@
         <v>493</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I101" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J101" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="K101" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J101" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="K101" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -8525,19 +9174,19 @@
         <v>582</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I102" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J102" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J102" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K102" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -8564,19 +9213,19 @@
         <v>621</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I103" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J103" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J103" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K103" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -8603,19 +9252,19 @@
         <v>512</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -8642,19 +9291,19 @@
         <v>580</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I105" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J105" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="K105" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="J105" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="K105" s="22" t="s">
-        <v>691</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -8681,19 +9330,19 @@
         <v>339</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -8720,19 +9369,19 @@
         <v>354</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -8759,19 +9408,19 @@
         <v>497</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I108" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="J108" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="J108" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="K108" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -8798,19 +9447,19 @@
         <v>562</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -8837,19 +9486,19 @@
         <v>627</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -8876,19 +9525,19 @@
         <v>467</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -8915,19 +9564,19 @@
         <v>549</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -8954,19 +9603,19 @@
         <v>603</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -8993,19 +9642,19 @@
         <v>579</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -9032,19 +9681,19 @@
         <v>501</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -9071,19 +9720,19 @@
         <v>682</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -9110,19 +9759,19 @@
         <v>567</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -9149,19 +9798,19 @@
         <v>441</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -9188,19 +9837,19 @@
         <v>599</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -9227,19 +9876,19 @@
         <v>346</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -9248,42 +9897,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -9292,7 +9941,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -9301,7 +9950,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/Koulu_Kandi/Materiaali.xlsx
+++ b/Koulu_Kandi/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="852">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -2447,23 +2447,178 @@
     <t>Unnecessary time was spent in meetings. Focus was on individual projects rather than on products delivered to customers. There were communication difficulties across and within projects. Contracts with offshore vendors endorsed bad habits. Agile methods had been tried before by the developers with bad results.</t>
   </si>
   <si>
-    <t>Developers were no longer passed around different projects. All project managers were replaced with "delivery leads". Offshore teams were replaced by onshore teams. Organization is project oriented, so that teams are formed around projects. While there still is people working across different teams, such cross allocation is kept to a minimum and made visible.</t>
-  </si>
-  <si>
     <t>A new CTO was hired to drive the change. The development group visited another company with a working agile organization. The CTO brought in an agile consulting firm. A pilot project was chosen, and an experienced agile team was formed for the project. The pilot project was a great success. After the pilot all other development teams started using agile practices.</t>
   </si>
   <si>
-    <t>What is agility?</t>
-  </si>
-  <si>
-    <t>Use a "delivery lead" instead of a project manager. The delivery lead focuses on seeking incentives increasing productivity, coaching on tools and methods, and tracking metrics in order to gain visibility on where the team needs help.</t>
-  </si>
-  <si>
-    <t>Unsuccessful previous attempts caused resistance. Changing the work environment physically involved other entities of the company who were not affected by the agile transformation. The highly successful pilot made unrealistic expectations for the next phase. Teams not performing up to the pilot agile team lead to frustration. Other parts of the organization were non-agile in nature (e.g. marketing)</t>
-  </si>
-  <si>
     <t>The project management group did not adapt to agile, as it did not bring value in the new way of working.
-There were some fears that proved to be false. E.g. The differences in the agile implementations between different teams were thought to cause trouble when people changed. This was not true, and team culture and tools could easily be picked up by new people.</t>
+There were some fears that proved to be false. E.g. The differences in the agile implementations between different teams were thought to cause trouble when people changed. This was not true, and team culture and tools could easily be picked up by new people. Teams strived for consistency in external communication (e.g. metrics for business) but arranged internally as best suited for getting the work done.</t>
+  </si>
+  <si>
+    <t>Use a "delivery lead" instead of a project manager. The delivery lead focuses on seeking incentives increasing productivity, coaching on tools and methods, and tracking metrics in order to gain visibility on where the team needs help.
+Focus on continuous improvement. Provide support for a learning community (lunches, craft days, learning tools, etc.). Invest on improving staff skills.</t>
+  </si>
+  <si>
+    <t>Unsuccessful previous attempts caused resistance. Changing the work environment physically involved other entities of the company who were not affected by the agile transformation. The highly successful pilot made unrealistic expectations for the next phase. Teams not performing up to the pilot agile team lead to frustration. Other parts of the organization were non-agile in nature (e.g. marketing).
+How to produce estimates to business.</t>
+  </si>
+  <si>
+    <t>More than one year ("heading into it's second year")</t>
+  </si>
+  <si>
+    <t>Average product delivery from 18 months to 9 months.</t>
+  </si>
+  <si>
+    <t>Developers were no longer passed around different projects. All project managers were replaced with "delivery leads". Offshore teams were replaced by onshore teams. Organization is project oriented, so that teams are formed around projects. While there still is people working across different teams, such cross allocation is kept to a minimum and made visible. The organization has shifted the focus from the transition itself towards continuous improvement. Also parts other than development have taken on agile practices.</t>
+  </si>
+  <si>
+    <t>Business has far better visibility into development. Improved communication between development and other parts of the business.</t>
+  </si>
+  <si>
+    <t>What is agility? / Which agile paractices?</t>
+  </si>
+  <si>
+    <t>The authors are within the company</t>
+  </si>
+  <si>
+    <t>Challenges may have been neglected</t>
+  </si>
+  <si>
+    <t>14000 IT employees</t>
+  </si>
+  <si>
+    <t>2005-2007 (continuing)</t>
+  </si>
+  <si>
+    <t>The rapid marketplace required an quicker time to market. New competitors have emerged. It was seen from a strategic viewpoint that the ways of working needed to change.</t>
+  </si>
+  <si>
+    <t>Management invested much in communicating the new strategy to all employees. Many events were organized to inform about the changes.
+An internal coaching community was established. A base of coaching specialists was slowly built up. A “baby steps” approach was taken, and non-disruptive changes were implemented (such as stand-ups and retrospectives). Agile was promoted in “Joining the Dots” communications events. The events were based on establishing the agile values by trying out techniques in practice. The activities in the events were lead by the people who were also the daily leaders in the organization. The change was driven top-down.</t>
+  </si>
+  <si>
+    <t>Not a tool based technique, but rather a values based technique.</t>
+  </si>
+  <si>
+    <t>The agile coach community took a long time to evolve. The coaches had to learn themselves, too. Successful implementation of agile requires buy-in on the agile values.</t>
+  </si>
+  <si>
+    <t>Make learning the new practices fun. Focus first on learning the most important practices, and leave advanced topics to when the teams master the basics. Create a buy-in into agile. Let the teams' agile practices emerge rather than use direct instruction.</t>
+  </si>
+  <si>
+    <t>Ensuring that teams will start using the practices after the events.</t>
+  </si>
+  <si>
+    <t>There was an increase in demand for agile training</t>
+  </si>
+  <si>
+    <t>Product line company with over 300 employees</t>
+  </si>
+  <si>
+    <t>Authors suggest a step-by-step or project-by projcet approach for the transition.</t>
+  </si>
+  <si>
+    <t>3, (6), 7, 8, 13, 14, 15,19, 20</t>
+  </si>
+  <si>
+    <t>Workshops, interviews, focus groups</t>
+  </si>
+  <si>
+    <t>No apparent bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the case study it was found out that the company couldnot develop new features in an appropriate timeframe using traditional methods. Quickly identifying and developing new product features was necessary to keep the company competitive. </t>
+  </si>
+  <si>
+    <t>The company understood the advantages agile could bring. Agile practices are applicable for large and complex projects. The leading role of executive management was important fot the success of the agile transformation.</t>
+  </si>
+  <si>
+    <t>Agility is seen through the ASSF framework: methods, values, tools, and link to business. Agile can be combined with formal practices.</t>
+  </si>
+  <si>
+    <t>The company was not ready to fully use an agile method, and a sudden change was seen as risky and problematic. The new feature development method was changed to agile, while bug fixing process remained traditional. The change was lead by executive management, who had a role of removing impediments from the progress of the transformation. The developers were selforganizing, as managers took roles as facilitators.</t>
+  </si>
+  <si>
+    <t>There was demand for new ways of working as there was barriers between business and technology.</t>
+  </si>
+  <si>
+    <t>Command and control culture. Failures punished while success ignored. Strong centralized product management (PMO) with compliance-oriented environment. Developers often worked on 4 to 5 projects at the same time. New methods were mandated, but in practice people stuck to the old ways. Business was unhappy of development, as they were failing on big value projects, and were too slow and expensive across the board.</t>
+  </si>
+  <si>
+    <t>The entire organization was changed; not only development but all interfacing organizations adapted to agile. Some organizational entities (PMO) had to be discarded, and new entities (Dev Support) were established.</t>
+  </si>
+  <si>
+    <t>Agile development was treated as merely a paradigm shift, i.e. Existing roles were just mapped to Scrum without actually doing anything different. At some point Technology Operations could not keep pace with agile development. You very often "get what you measure", so measuring agile results requires cautiousness.</t>
+  </si>
+  <si>
+    <t>Improved satisfaction</t>
+  </si>
+  <si>
+    <t>Business partner satisfaction has improved greatly. Business value has been perceived to be delivered faster. Product owner involvement is high. Internal development is better than bought components. 4% increase in technology employee satisfaction.</t>
+  </si>
+  <si>
+    <t>A new CIO was introduced, and he set to remove barriers between business and technology. Shortly a new Director of Development was introduced. The key people set a vision for a new culture.
+The project management office (PMO) was identified as the first bottleneck. Project managers were returned to the development organization. The entire organization was educated on inability of accurate prediction in software development. Scrum was also introduced. Project managers started complaining on impediments in the current process, and the rigor was started to be torn down little by little. The social communities of the PMO staff disappeared with the change. A Dev Support team was set up to create leaderdship in thought and technology.
+Scrum was introduced to management, who responded by finding problems that would fail Scrum. However, the problems were seen as impediments that were to be removed. Scrum was piloted in 2 projects, by the help of agile consultants (Ken Schwaber).
+After success in piloting the rest of the development organization started adopting Scrum. More training and events were arranged, and workshops evolved into an agile community. Other parts (Technology Operations) adapted their organizational structure to support agile development. There were significant investments in the physical environment (team rooms, coffee shop, etc.)</t>
+  </si>
+  <si>
+    <t>Impediments for agile methods can be removed, if management is determined. Seemingly incompatible metods and technology can still adapt to agile (e.g. Cobol TDD). The flexibility provided by agile brings great benefit in big projects. Enabling learning and, flexibility and early feedback is valuable. (Early feedback refers to continuous testing, possibility to demo early and start training early)
+The agile adoption is a long and ongoing process, which requires commitment.</t>
+  </si>
+  <si>
+    <t>1500 associates across 2 onshore and 3 offshore sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visioning 2004, training 2005, piloting 2006, organization wide adoption 2006-2007-&gt; </t>
+  </si>
+  <si>
+    <t>Scrum practices, TDD, Continuous feedback, Customer involvement</t>
+  </si>
+  <si>
+    <t>300 members in 5 locations</t>
+  </si>
+  <si>
+    <t>Better team morale</t>
+  </si>
+  <si>
+    <t>Author in a management role in the company</t>
+  </si>
+  <si>
+    <t>As an effort to reduce development costs, boost efficiency and quality, and provide operational oversight. Agile piloting had given excellent results.</t>
+  </si>
+  <si>
+    <t>Pilots 2006-2008, large scale 2008-</t>
+  </si>
+  <si>
+    <t>Scrum practices. Reduce waste, deliver working software.</t>
+  </si>
+  <si>
+    <t>A number of pilot projects gave excellent results on agile, which yielded company wide excitement. After the success agile was seen as a candidate to be fit as a part in the big picture of the entire value chain. However, trying to make agile more than "just a development thing" hit a wall. Management still decided that agile methods were bringing good things to the organization, and the rest of the organization needs to change to fit with agile. New practices were tailored to enable different organizational units to work together in an agile manner. New organizational units were established where necessary (e.g. EQC).
+An external consultant company was brought in to assist in bringing together development, marketing, product management and sales.</t>
+  </si>
+  <si>
+    <t>There are areas in the enterprise which fall outside Scrum's prescriptions. Agile bumped against traditional business processes. Agile pilot teams were living in a microcosm, but problems arose when the projects shifted from "early access" to general availability. When these conflicts emerged the positivity towards agile declined. Fitting Scrum practices to an enterprise delivery model was found challenging.
+Backlogs started to get flooded when people learned that requests can be made. Specialized testing requires a separate unit to perform it, and it can not be implemented as a team activity as it may require significant resources.
+Specialized high level testing required special resources that were not available on a team level (e.g. access to all thinkable user environments), so full testing was impossible to achieve within the team boundary.
+Product marketing were unfamiliar with the concept of collaborating with development. They wanted to see development as a black box, which was fed a fixed set of requirements once a year. Marketing saw that figuring out "how" for the product roadmap was solely the responsibility of development.
+There are constraints such as regulation, marketing launch plans, sales material and trainging, which require knowing exactly what is in the product some time before release. Agile teams must interface with these constraints.</t>
+  </si>
+  <si>
+    <t>Teams need to be shielded from the chaos business may throw at them as otherwise the backlog will get flooded. Some authority may pre-prioritize the backlog before the team gets to it.
+A separate Enterprise Quality Center was established fo performing specialized testing, such as performance testing. The EQC and agile teams adapted their practices to enable the most agile approach possible. Scrum rules had to be adjusted to incorporate the EQC as an external actor.
+Issues between development, marketing and product management were resolved by three-day agile workshops. This created a collaborative atmosphere.
+Some number of sprints before release development commits to a fixed set of functionality that will be delivered. 90 days was set as the time limit. Marketing can "declare" a release date and development will be able to tell a locked feature set.</t>
+  </si>
+  <si>
+    <t>Transformation is an ongoing journey. Excitement and novelty wear off after a time.
+It takes time, strong leadership, trainging and early positive results to grow in agile in development. It takes the same to penetrate agility throughout the entire organization.
+As the agile practices had to be adapted to interface with constraints such as the release constraints, authorative behavior started creeping back in. The agile methods needed to be refreshed by taking courses on agile.</t>
+  </si>
+  <si>
+    <t>Agile development teams established. Some old non agile organizational units were dissolved. New units were created for QA. Business units had to adapt to interfacing with agile development practices.</t>
+  </si>
+  <si>
+    <t>Not stated</t>
   </si>
 </sst>
 </file>
@@ -2519,21 +2674,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2568,6 +2717,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2575,7 +2742,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2684,31 +2851,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3018,7 +3164,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4664,9 +4810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,16 +4835,16 @@
     <col min="21" max="21" width="18" style="30" customWidth="1"/>
     <col min="22" max="23" width="21.140625" style="30" customWidth="1"/>
     <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="19" customWidth="1"/>
-    <col min="26" max="26" width="49.28515625" style="19" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
     <col min="28" max="28" width="77.42578125" style="19" customWidth="1"/>
-    <col min="29" max="29" width="43.28515625" style="19" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" style="19" customWidth="1"/>
     <col min="30" max="30" width="56.42578125" style="19" customWidth="1"/>
     <col min="31" max="31" width="66.28515625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="65.85546875" style="19" customWidth="1"/>
+    <col min="32" max="32" width="66.42578125" style="19" customWidth="1"/>
     <col min="33" max="33" width="37" style="19" customWidth="1"/>
-    <col min="34" max="34" width="34.5703125" style="19" customWidth="1"/>
+    <col min="34" max="34" width="42.5703125" style="19" customWidth="1"/>
     <col min="35" max="35" width="44.85546875" style="19" customWidth="1"/>
     <col min="36" max="36" width="38.28515625" style="19" customWidth="1"/>
     <col min="37" max="37" width="17.140625" style="19" customWidth="1"/>
@@ -4775,7 +4921,7 @@
         <v>705</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AD1" s="16" t="s">
         <v>715</v>
@@ -5341,144 +5487,215 @@
         <v>752</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="42" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="35">
         <v>2011</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="L9" s="43">
+      <c r="G9" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M9" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="S9" s="43">
+      <c r="M9" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S9" s="34">
         <v>4</v>
       </c>
-      <c r="T9" s="48" t="s">
+      <c r="T9" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49" t="s">
+      <c r="U9" s="18"/>
+      <c r="V9" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="W9" s="49" t="s">
+      <c r="W9" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="X9" s="50" t="s">
+      <c r="X9" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50" t="s">
+      <c r="Y9" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="Z9" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="AA9" s="50" t="s">
+      <c r="AA9" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="AB9" s="50" t="s">
+      <c r="AB9" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50" t="s">
+      <c r="AE9" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="AF9" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="AG9" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="AH9" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI9" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="AE9" s="50" t="s">
-        <v>803</v>
-      </c>
-      <c r="AF9" s="50" t="s">
-        <v>804</v>
-      </c>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50" t="s">
-        <v>800</v>
-      </c>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+    </row>
+    <row r="10" spans="1:38" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="35">
         <v>2007</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="G10" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M10" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S10" s="34">
+        <v>3</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y10" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB10" s="40" t="s">
+        <v>814</v>
+      </c>
+      <c r="AC10" s="40" t="s">
+        <v>815</v>
+      </c>
+      <c r="AD10" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="AE10" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="AF10" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
     </row>
     <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -5567,122 +5784,317 @@
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="35">
         <v>2007</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="G12" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="M12" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="S12" s="34">
+        <v>2</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="W12" s="18"/>
+      <c r="X12" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="AD12" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AE12" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="35">
         <v>2007</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L13" s="24">
+      <c r="G13" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="M13" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S13" s="34">
+        <v>5</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="X13" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y13" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="Z13" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC13" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="AD13" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="AG13" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="AH13" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="AI13" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+    </row>
+    <row r="14" spans="1:38" s="33" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="35">
         <v>2009</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="G14" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M14" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S14" s="34">
+        <v>5</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y14" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA14" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="AB14" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>849</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="AG14" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="AH14" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
